--- a/Data_processed/electricity/electricity India.xlsx
+++ b/Data_processed/electricity/electricity India.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:CW31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>B.046.06.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Electricity Andaman  &amp; Nicobar production</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.06193187418</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00199113921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0119899208</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.046217e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.047920352</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.010011622</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0019782988</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0016934028</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00029773641</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.046217e-05</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.3194690133333333</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>3.4160813</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.2955898</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.08243502599999999</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.038056471</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0085937606</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0080564976</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00030194953</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00023531345</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4.8300345e-07</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.1166773e-09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.032957066</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.9646724e-07</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.9451323e-10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.4439379e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4.5378768e-11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.8649083e-07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.0348573e-11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2.1179103e-10</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.1677165e-06</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.032955898</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.6238141e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.4601514e-06</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>8.9076437e-06</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>8.0620735e-10</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.4692748e-06</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>2.4593491e-09</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>4.1848618e-07</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3.9793194e-06</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>3.8629812e-14</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.31946901</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00099901429</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0001344381</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>6.8475711e-05</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.44770277</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.047920352</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.01398106001</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0119899208</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0119899208</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3.046217e-05</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>B.046.06.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Electricity Andhra Pradesh production</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.045356591401</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00153616564</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00226601113</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.4192631e-05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.041480222</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00073982373</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0015261874</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0013146107</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00022155494</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.4192631e-05</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.2765348133333334</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>3.2140221</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.9474143</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0041793053</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.23490883</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.027519663</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0048169404</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0045631594</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.00021578001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3.8000989e-05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.7357071e-07</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7.9800299e-10</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0053222674</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.5662431e-07</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.7429749e-10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.1154913e-14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.5228129e-11</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.6911168e-08</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.033731799999999e-12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.5650614e-11</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2.8440509e-06</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0053194233</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.1925409e-05</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.0790006e-07</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>7.710524400000001e-06</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>6.2586927e-10</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.8719042e-07</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.9092247e-09</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2.582991e-07</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3.5589595e-06</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>9.4085464e-14</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.27653482</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>7.382365299999999e-05</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.00010371423</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1.0036505e-05</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.056135012</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.041480222</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.00380217677</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.00226601113</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.00226601113</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>7.4192631e-05</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>B.046.06.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Electricity Arunachal Pradesh production</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.000618202119566</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.670621403000001e-06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.0378163e-08</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00023848416</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00037199696</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6414633e-08</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.396353e-08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.5489303e-08</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.6551321e-06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00023848416</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.002479979733333334</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.00061981223</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.2390046</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.2344824e-05</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.0401624e-05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.8779275e-06</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.527311399999999e-08</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.4221597e-09</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6.944998e-12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9.141892700000001e-06</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.3014212e-09</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6.9439433e-12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.8971845e-16</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4.1507284e-16</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.2073808e-10</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.4656854e-17</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>7.70334e-16</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9.141892700000001e-06</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>7.6013696e-08</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>5.3109153e-12</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>6.914841600000001e-08</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>7.374258699999999e-15</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>6.8563316e-09</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>2.24953e-14</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>3.3056128e-12</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>3.0242751e-13</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.0024799797</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>3.6336509e-09</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>9.489114699999999e-10</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1.9112311e-07</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.00037199696</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>7.720999565999999e-06</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>5.0378163e-08</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>5.0378163e-08</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.00023848416</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>B.046.06.104</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Electricity Assam production</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.046072985429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00201470297</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00292840419</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.7063269e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.041102815</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00097357709</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0019548271</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0017527915</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.00026191147</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.7063269e-05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.2740187666666667</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>3.1470098</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.0245349</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.039667983</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.082806914</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0049032085</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0046057777</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.00021593618</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.1494629e-05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.7612576e-07</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.9858056e-10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.011413814</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.5428941e-07</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.6725254e-10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.0962436e-14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.697023e-11</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1789376e-08</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.0711504e-11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.0595554e-11</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.0374253e-06</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.011412776</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.2079854e-05</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.4199197e-07</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>7.6403703e-06</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>8.3448155e-10</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>3.5139543e-07</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>2.5456e-09</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>3.4427276e-07</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>3.5984436e-06</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>3.4319583e-14</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.27401877</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>9.714883899999999e-05</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.00013284305</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.2468331e-05</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.17161361</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.041102815</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.00494310716</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.00292840419</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.00292840419</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2.7063269e-05</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>B.046.06.105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Electricity Bihar production</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.0572857509857</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0019456178</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0028613797</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.1544857e-06</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.052477599</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0009280865</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0019332932</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0016640531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0002815647</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.1544857e-06</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.34985066</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>3.7470553</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.7325163</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.010448263</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0039667983</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.00012396245</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.006091619</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0057709048</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.00027294475</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.7769482e-05</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.459775e-07</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.009411e-09</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0066904037</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.2466141e-07</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.7958185e-10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.6763575e-14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.4592272e-11</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.12715e-08</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.0169213e-11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.9633222e-11</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>4.4255287e-08</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0066903594</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.5090626e-05</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.3535737e-07</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>9.7547647e-06</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>7.9223433e-10</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3.635215e-07</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>2.4167242e-09</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3.2687926e-07</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.5068942e-06</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.4640312e-15</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.34985066</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>9.260954e-05</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00013137968</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1.2681035e-05</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.070424836</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.052477599</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.0048069975</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.0028613797</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.0028613797</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1.1544857e-06</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>B.046.06.106</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Electricity Chandigarh production</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.0010784420684</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.85442534e-05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.000100756325</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00034800584</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00059113565</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.2829265e-05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.792706e-05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0978607e-05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.5656464e-06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.00034800584</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.003940904333333333</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.860336899999999e-05</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5056514e-05</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.4516061e-06</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.524919699999999e-08</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.0993114e-09</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.2764815e-11</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.3340224e-05</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6571592e-09</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.1034532e-11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.0147918e-16</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>8.3014567e-13</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.441322e-09</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.8931371e-13</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.540668e-12</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.3340224e-05</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.4269753e-07</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.0621831e-08</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.0988287e-07</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.4748517e-11</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.5521427e-08</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4.4990601e-11</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>6.6112255e-09</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4.4131459e-13</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.0039409043</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>7.2673018e-06</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.8978229e-06</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>6.327823e-07</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.00059113565</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0001393005784</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.000100756325</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.000100756325</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.00034800584</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>B.046.06.107</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Electricity Chhattisgarh production</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.05673145608750001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00195550138</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00287390755</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5371575e-06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05189951</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.00093976095</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0019341466</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0016654218</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.00029007958</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.5371575e-06</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.3459967333333334</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>3.737914</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3.6912191</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.036777887</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0064460472</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0034709485</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0060343518</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0057170146</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00027009583</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>4.7241335e-05</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.4274668e-07</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>9.9887509e-10</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0066164334</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.2108497e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.6879086e-10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.646875e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4.4628949e-11</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.1617081e-08</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.0177577e-11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.988019e-11</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9.7257705e-08</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0066163362</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.4944405e-05</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.3706003e-07</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>9.647307000000001e-06</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>7.9288594e-10</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>3.7254554e-07</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.4187119e-09</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3.2725141e-07</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.4570291e-06</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3.2174306e-15</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.34599673</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>9.3774479e-05</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.00013143767</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>1.2964566e-05</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.06964564400000001</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.05189951</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.00482940893</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.00287390755</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.00287390755</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>2.5371575e-06</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>B.046.06.108</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Electricity Dadra &amp; Nagar Naveli production</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.00529718495</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00194254168</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0027571556</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00021568996</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00038179771</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0013803072</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0013768484</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0012273497</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00071519198</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00021568996</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.002545318066666667</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>2.3796327</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.6207346</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.75889809</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.00065710883</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0006451989</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.1850899e-05</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>5.9034341e-08</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.8680989e-08</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.382729e-11</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>8.268115000000001e-06</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.3620552e-09</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.1268907e-12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.9471683e-16</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3.2889763e-11</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.6286044e-08</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5004704e-12</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.9199734e-11</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8.268115000000001e-06</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.328313e-06</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.0131179e-07</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>7.0970222e-08</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>5.8432545e-10</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>8.0598159e-07</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.7824946e-09</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2.4768235e-07</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2.7352163e-13</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.0025453181</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.00013773459</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>9.356568100000001e-05</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>2.6252324e-05</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.00038179771</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.00469969728</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0027571556</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0027571556</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.00021568996</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3425,297 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>B.046.06.109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Electricity Delhi production</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.034541150794</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00224411211</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0032190666</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.6913084e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.029061059</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0011026787</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0021163879</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001986335</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00025777711</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.6913084e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.1937403933333333</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>2.5154459</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.4552002</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.060245749</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0036978104</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0034012763</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.00015627857</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.00014025558</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.0391345e-07</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>5.7795327e-10</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.019643638</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.7979109e-07</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5.424731e-10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.482114e-14</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5.3228584e-11</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.4069133e-08</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.2138714e-11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.3326635e-11</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6.4833487e-07</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.01964299</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>9.1606667e-06</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.6082087e-07</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>5.4019963e-06</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>9.456686000000001e-10</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3.6320486e-07</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.884778e-09</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>3.901381e-07</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2.8406761e-06</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2.1447889e-14</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.19374039</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.0001100313</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.00014382214</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>1.3152491e-05</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.33207754</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.029061059</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.00546317871</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.0032190666</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0032190666</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>1.6913084e-05</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3734,297 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>B.046.06.110</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Electricity Goa production</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.0009434211153999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.37185124e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.8141633e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003044355</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.00051712547</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.3711041e-05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.4430592e-05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.7100085e-05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.6184274e-06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0003044355</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.003447503133333333</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>1.2473845</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.16296103</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.0844235</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.9145645e-05</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.4407439e-05</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.019465e-06</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.1718742e-05</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>4.4608776e-09</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.116666e-11</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0016412803</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1992829e-09</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.6530087e-12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.6373399e-16</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>7.2621144e-13</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.2608685e-09</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.6561163e-13</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.3477764e-12</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.1670028e-05</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.0016296103</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.2347604e-07</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>9.291977499999999e-09</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>9.6125534e-08</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.2902003e-11</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.3578144e-08</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>3.9357777e-11</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5.7835001e-09</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>1.9864424e-07</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>3.86062e-13</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0034475031</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6.3574357e-06</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>1.6602155e-06</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>5.5355795e-07</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.022348941</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.00051712547</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0001218601454</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>8.8141633e-05</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>8.8141633e-05</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.0003044355</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4043,297 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>B.046.06.111</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Electricity Gujarat production</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>0.0360252951</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00123806281</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00185102142</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00175047487</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.031185736</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00062883482</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0012221866</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0010653788</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00017268401</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00012008037</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0016303945</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.2079049066666667</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>2.8446502</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.2212484</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.20168166</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.3720113</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.049708941</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0036522071</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.003454315</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.00016277079</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3.5121315e-05</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.0709323e-07</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6.0196299e-10</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0049189517</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.9293575e-07</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.8213374e-10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.5904725e-14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2.8549368e-11</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.4128925e-08</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.5106485e-12</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.3302697e-11</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6.9546889e-06</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.004911997</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>9.293303299999999e-06</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>9.1712815e-08</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>5.7969405e-06</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>5.072132e-10</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.3011303e-07</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1.5472624e-09</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>2.0960632e-07</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>2.962876e-06</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1.5227681e-13</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.20790491</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>6.2748573e-05</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>8.3055421e-05</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>8.140968699999999e-06</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.059700314</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.031185736</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.00308908423</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.00185102142</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.00185102142</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.00175047487</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4352,297 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>B.046.06.112</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Electricity Haryana production</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.054862057745</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00191950435</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00281984509</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.1102305e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.050111606</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0009290930900000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001890752</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0016295704</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.00028993395</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.1102305e-05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.3340773733333334</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>3.6653597</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.5667918</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.056420622</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.032850048</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.009297183400000001</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0058365135</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0055292287</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00026095093</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.6333893e-05</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.3148853e-07</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9.650552099999999e-10</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.0064893407</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.100238e-07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.3541665e-10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.5556919e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.3668225e-11</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.1421059e-08</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.9584855e-12</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.9654516e-11</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>4.2558837e-07</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.0064889152</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.4451183e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.3550417e-07</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>9.3149636e-06</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>7.7581754e-10</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>3.7113357e-07</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>2.3666445e-09</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>3.2029723e-07</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>4.306142e-06</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>1.4079101e-14</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.33407737</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>9.2709982e-05</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.00012848873</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>1.2895882e-05</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.06903029400000001</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.050111606</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.00473934944</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.00281984509</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.00281984509</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>1.1102305e-05</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -838,18 +4661,297 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>B.046.06.113</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Electricity Himachal Pradesh production</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.000618662585</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.701510509999999e-06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5113449e-07</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00023859373</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.00037221621</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.092439e-07</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.189059e-08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.646791e-08</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.6550426e-06</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.00023859373</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0.0024814414</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0018594367</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.237765</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4.2391106e-05</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4.0446301e-05</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1.8795019e-06</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6.5303105e-08</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.4248382e-09</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>6.9508207e-12</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>9.1460931e-06</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.3027776e-09</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.9480359e-12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.8983027e-16</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.2452185e-15</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.2205933e-10</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>2.8397056e-16</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.311002e-15</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.1460931e-06</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>7.608041300000001e-08</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.5932746e-11</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>6.918917000000001e-08</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.2122776e-14</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>6.8650011e-09</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>6.7485901e-14</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>9.9168383e-12</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>3.0256647e-13</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.0024814414</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>1.0900953e-08</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>2.8467344e-09</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>1.9156499e-07</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.00037221621</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>7.852645e-06</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>1.5113449e-07</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>1.5113449e-07</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.00023859373</v>
+      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -868,18 +4970,297 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>B.046.06.114</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Electricity Jammu &amp; Kashmir and Ladajh production</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>0.0006179718869</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0.002479248933333333</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="Z15" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4.2321684e-05</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>4.0379285e-05</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.8771402e-06</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6.525811800000001e-08</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.4208205e-09</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6.9420866e-12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.300743e-09</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.941897e-12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.8966254e-16</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.2007746e-10</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>7.5980337e-08</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>6.8519969e-09</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>3.0235803e-13</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0024792489</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>1.9090217e-07</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -898,18 +5279,297 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>B.046.06.115</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Electricity Jharkhand production</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>0.0572162814591</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00193182713</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.00284172875</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.6045791e-06</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.052441121</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00091863175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.001923097</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0016550134</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.00027681373</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.6045791e-06</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0.3496074733333334</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="Z16" t="n">
+        <v>3.7379459</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3.7298883</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.00061981223</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0074377467</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0060834569</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0057630294</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0002726916</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.7735972e-05</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.4550536e-07</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.0084749e-09</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.0066857104</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.2443574e-07</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9.7890093e-10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2.6744972e-14</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>4.4350032e-11</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.102527e-08</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.0113971e-11</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.9433212e-11</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>6.1508866e-08</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.0066856489</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1.507207e-05</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.3397843e-07</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>9.7479841e-06</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>7.8793064e-10</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>3.5813312e-07</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2.4035957e-09</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>3.2506176e-07</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>4.5037209e-06</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>2.0348055e-15</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.34960748</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>9.166609299999999e-05</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.00013068678</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>1.2504901e-05</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.070375251</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.052441121</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.00477355588</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.00284172875</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.00284172875</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>1.6045791e-06</v>
+      </c>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -928,18 +5588,297 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>B.046.06.116</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Electricity Karnataka production</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
+        <v>0.03037106667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00109817215</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.00165314497</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00262306055</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.024996689</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00061030927</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0010428357</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00090402459</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.00019414756</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.00013472435</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0024883362</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.1666445933333333</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="Z17" t="n">
+        <v>2.7229208</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.761138</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.30781002</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.13791708</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.35626807</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.15978759</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.0029693368</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0028155767</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.00013115833</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.2601744e-05</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.6879956e-07</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>4.85053e-10</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.0031655103</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.5464618e-07</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>4.6660486e-10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.2748311e-14</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2.4225496e-11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.4129156e-08</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5.5245947e-12</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.2910798e-11</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8.7534981e-06</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.0031567568</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>7.730699400000001e-06</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>8.9010945e-08</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>4.6464934e-06</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>4.3039451e-10</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.47099e-07</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1.3129257e-09</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>1.7858719e-07</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>2.5677654e-06</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1.7084719e-13</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.16664459</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>6.0899992e-05</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>7.0867375e-05</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>8.563250499999999e-06</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.033229019</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.024996689</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.00275131712</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.00165314497</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.00165314497</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.00262306055</v>
+      </c>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -958,18 +5897,297 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>B.046.06.117</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Electricity Kerala production</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
+        <v>0.000817107918</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.4654087e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.0402121e-05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000257386</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00040466571</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.8721468e-05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.1680653e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.8117311e-05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.6536776e-05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.000257386</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.0026977714</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="Z18" t="n">
+        <v>1.2703211</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.043464775</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.23118996</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.99566636</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6.593266100000001e-05</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.3477939e-05</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.3842749e-06</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.044654700000001e-08</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3.8056319e-09</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>8.8175847e-12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>9.8664632e-06</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.5035319e-09</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.55376e-12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.0637951e-16</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.0214443e-12</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.3010785e-09</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2.3293912e-13</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.0306792e-12</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>9.8664632e-06</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.1975411e-07</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>7.1058136e-09</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>7.5221026e-08</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.8147163e-11</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2.9605845e-08</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>5.5358226e-11</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>7.7475918e-09</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>3.2639739e-13</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.0026977714</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>4.8616942e-06</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>2.8324678e-06</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>9.588684800000001e-07</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.00040466571</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.000155056208</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>9.0402121e-05</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>9.0402121e-05</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.000257386</v>
+      </c>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -988,18 +6206,297 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>B.046.06.118</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Electricity Lakshadweep production</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
+        <v>0.05750158464875001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00194154173</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00285613091</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.2200875e-07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05270339</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00092332761</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0019328033</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0016633735</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.00027816823</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.2200875e-07</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.3513559333333334</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="Z19" t="n">
+        <v>3.7505192</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.7486598</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0018594367</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0061139064</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.0057918744</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.0002740561</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4.7975915e-05</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.4723468e-07</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.0135211e-09</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.0067193158</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.260583e-07</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.837966100000001e-10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2.6878729e-14</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4.4574061e-11</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.1131797e-08</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.016506e-11</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.953255e-11</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2.0010336e-08</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.0067192958</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.5147607e-05</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.346633e-07</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>9.796735699999999e-06</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>7.9191078e-10</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>3.5990966e-07</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2.4157372e-09</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>3.2670429e-07</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>4.5263869e-06</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>6.6197189e-16</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.35135593</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>9.2134671e-05</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.00013134638</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>1.2567315e-05</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.07072943</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.05270339</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.00479767264</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.00285613091</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.00285613091</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>5.2200875e-07</v>
+      </c>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1018,18 +6515,297 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>B.046.06.119</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Electricity Madhya Pradesh production</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
+        <v>0.051968098064</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00175968838</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.00258951236</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.0047324e-05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04758885</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.00084017386</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0017493385</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0015058858</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.00025380258</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.0047324e-05</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.317259</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="Z20" t="n">
+        <v>3.5083763</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3.3821258</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0050151664</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.06557613399999999</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.055659138</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.0055232643</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.0052324519</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.00024750404</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4.3308309e-05</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3.1369616e-07</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>9.1532558e-10</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.0060655895</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.9441635e-07</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8.8832521e-10</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2.4270314e-14</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.0353804e-11</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.9239452e-08</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.202635700000001e-12</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.7773473e-11</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.1518141e-06</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.0060644376</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.3679197e-05</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.2253569e-07</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>8.846022799999999e-06</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>7.1693293e-10</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>3.2811052e-07</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>2.187016e-09</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>2.9581244e-07</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>4.0838119e-06</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>3.8103736e-14</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.317259</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>8.3837136e-05</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.00011887878</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1.1452621e-05</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.06384448500000001</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.04758885</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.00434920074</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.00258951236</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.00258951236</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>3.0047324e-05</v>
+      </c>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1048,18 +6824,297 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>B.046.06.120</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Electricity Maharashtra production</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
+        <v>0.048076234781</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00170398109</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0025240084</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001590323291</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.042257922</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0008637811</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0016602273</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0014362913</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.00026768979</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.9311291e-05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.001551012</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.28171948</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="Z21" t="n">
+        <v>3.4425417</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.0058929</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.19186195</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.095288161</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.10078147</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.048717241</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.0049545257</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.0046930878</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.00022061566</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.0822303e-05</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.8136018e-07</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8.158863e-10</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.0057174094</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.6143568e-07</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.8881454e-10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.155154e-14</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3.8488851e-11</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.9886013e-08</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.777335599999999e-12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.8272873e-11</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.7440431e-06</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.0057136654</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1.2511597e-05</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.2597871e-07</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>7.8550866e-06</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>6.8379985e-10</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>3.4337681e-07</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>2.085943e-09</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>2.8273255e-07</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>3.9016526e-06</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>4.9851596e-14</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.28171948</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>8.619279599999999e-05</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.0001128231</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>1.1942892e-05</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.062937646</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.042257922</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.00422798949</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.0025240084</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.0025240084</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.001590323291</v>
+      </c>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1078,18 +7133,297 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>B.046.06.121</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Electricity Manipur production</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
+        <v>0.00062617327231</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.421655319999999e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.65996699e-06</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00023979624</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.00037529541</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.9226926e-06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.3727439e-07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.1783522e-07</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7.6038201e-06</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.00023979624</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.0025019694</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="Z22" t="n">
+        <v>1.2400211</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.0083302763</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.032726086</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.1989648</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.3867443e-05</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4.1300337e-05</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.9066924e-06</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>6.6041396e-07</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.4760394e-09</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>7.0513773e-12</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>9.2494953e-05</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.3218276e-09</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.0055144e-12</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.9140066e-16</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2.1915846e-14</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.5418982e-10</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>4.9978819e-15</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>4.0673635e-14</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.1921892e-06</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>8.3302763e-05</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>8.7409735e-08</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.8041633e-10</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>6.976154599999999e-08</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>3.8936086e-13</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>7.0370171e-09</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1.1877519e-12</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>1.7453635e-10</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>1.0154338e-08</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>3.0409139e-13</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.0025019694</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>1.9185677e-07</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>5.0102525e-08</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>2.0134603e-07</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.0011424379</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.00037529541</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>1.108162231e-05</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>2.65996699e-06</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>2.65996699e-06</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.00023979624</v>
+      </c>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1108,18 +7442,297 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>B.046.06.122</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Electricity Meghalaya production</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
+        <v>0.0006179718869</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0.002479248933333333</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="Z23" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>4.2321684e-05</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4.0379285e-05</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.8771402e-06</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6.525811800000001e-08</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.4208205e-09</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>6.9420866e-12</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>2.300743e-09</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6.941897e-12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.8966254e-16</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.2007746e-10</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>7.5980337e-08</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>6.8519969e-09</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>3.0235803e-13</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.0024792489</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>1.9090217e-07</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1138,18 +7751,297 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>B.046.06.123</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Electricity Mizoram production</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
+        <v>0.00062469473974</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.10615736e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.47104238e-06</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00024002918</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.00037508836</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.0633073e-06</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.0773508e-07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.5228766e-07</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.653869699999999e-06</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00024002918</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>0.002500589066666667</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="Z24" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.018098517</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.2215259</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>4.2997396e-05</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4.1031573e-05</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.9001274e-06</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>6.5695988e-08</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.4599264e-09</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>7.0270985e-12</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>9.2011187e-06</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.3205467e-09</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7.0016494e-12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.9129506e-16</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.2120127e-14</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.3936763e-10</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>2.7639801e-15</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>2.2493753e-14</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>9.2011187e-06</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>7.6954408e-08</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.5507873e-10</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>6.9723059e-08</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.1532835e-13</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>6.9785706e-09</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>6.5686277e-13</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>9.6523892e-11</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>3.043868e-13</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0.0025005891</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>1.0610261e-07</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>2.7708215e-08</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>1.9735362e-07</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0.00037508836</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>9.57719974e-06</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>1.47104238e-06</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>1.47104238e-06</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0.00024002918</v>
+      </c>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1168,18 +8060,297 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>B.046.06.124</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Electricity Nagaland production</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
+        <v>0.0006179718869</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0.002479248933333333</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="Z25" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>4.2321684e-05</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>4.0379285e-05</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.8771402e-06</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>6.525811800000001e-08</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.4208205e-09</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>6.9420866e-12</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.300743e-09</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>6.941897e-12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.8966254e-16</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.2007746e-10</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>7.5980337e-08</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>6.8519969e-09</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>3.0235803e-13</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0.0024792489</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>1.9090217e-07</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1198,18 +8369,297 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>B.046.06.125</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Electricity Odisha production</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0.052034338599</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00176172549</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0025905993</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.4158809e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.047657855</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0008393994</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0017511999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0015072748</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.00025445069</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.4158809e-05</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>0.3177190333333333</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="Z26" t="n">
+        <v>3.5123024</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.3871215</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0054330969</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.012644169</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.10710355</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.005530714</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.0052395084</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.00024785021</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>4.3355377e-05</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>3.1411921e-07</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>9.166058100000001e-10</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.0060721817</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.9484326e-07</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8.8961329e-10</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.4305506e-14</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>4.0391023e-11</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.9235553e-08</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9.2111236e-12</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.7757089e-11</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>9.260877e-07</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.0060712556</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.3698688e-05</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.2242274e-07</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>8.858849699999999e-06</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>7.1759418e-10</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>3.2859758e-07</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>2.1890331e-09</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>2.960706e-07</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>4.089841e-06</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>3.0636369e-14</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0.31771903</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>8.3759856e-05</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0.00011900527</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>1.1464061e-05</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0.063907953</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0.047657855</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0.00435232479</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0.0025905993</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0.0025905993</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>2.4158809e-05</v>
+      </c>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1228,18 +8678,297 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>B.046.06.126</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Electricity Puducherry production</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
+        <v>0.03911754162</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.00254160523</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0036455625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.729589e-05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.032913078</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0012485683</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0023969942</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0022496724</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00029193283</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.729589e-05</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.21942052</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="Z27" t="n">
+        <v>2.6768029</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.6151936</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.061609335</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.004176049</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.0038520278</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.0001769917</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.0001470295</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.3093692e-07</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>6.545550999999999e-10</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.020592367</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.0362224e-07</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6.1437746e-10</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.678567e-14</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>6.0285339e-11</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.7254387e-08</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.3747998e-11</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>2.641286e-11</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>6.6300912e-07</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0.020591704</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1.0173145e-05</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.8209824e-07</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>6.1180263e-06</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.0710402e-09</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>4.1130386e-07</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>3.2672261e-09</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>4.4185767e-07</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>3.0155211e-06</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>2.1933335e-14</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.21942052</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0.00012458896</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.00016289114</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>1.4893889e-05</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0.35340454</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0.032913078</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0.00618716773</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0.0036455625</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0.0036455625</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>1.729589e-05</v>
+      </c>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1258,18 +8987,297 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>B.046.06.127</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Electricity Punjab production</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
+        <v>0.044912393888</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00160170671</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.00235182123</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.8145948e-05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04090072</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.00078622923</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.001565592</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0013497601</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.00025194661</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5.8145948e-05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>0.2726714666666667</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="Z28" t="n">
+        <v>3.2398612</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.9024425</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.079824731</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.09582297100000001</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.16177099</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.0047757233</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.0045253831</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.00021317844</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>3.7161703e-05</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2.7130594e-07</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>7.883818e-10</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.0052047203</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.5303912e-07</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7.634801e-10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.0859367e-14</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>3.6170043e-11</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.8230653e-08</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.248534099999999e-12</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.66323e-11</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.228928e-06</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0.0052024913</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1.1810108e-05</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.146681e-07</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>7.602804e-06</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>6.4260348e-10</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>3.1996847e-07</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>1.9602727e-09</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>2.6545745e-07</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>3.5046066e-06</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>7.3736279e-14</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.27267146</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>7.845424699999999e-05</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0.00010639202</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>1.1077383e-05</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>0.054763067</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0.04090072</v>
+      </c>
+      <c r="CL28" t="n">
+        <v>0.00395352794</v>
+      </c>
+      <c r="CM28" t="n">
+        <v>0.00235182123</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>0.00235182123</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>5.8145948e-05</v>
+      </c>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW28" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1288,18 +9296,297 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>B.046.06.128</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Electricity Rajasthan production</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
+        <v>0.03251991413</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00107538678</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.00162402162</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.00191203773</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.027908468</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0005639958200000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0010600258</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00091869509</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.00015669169</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.00014425043</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0017677873</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>0.1860564533333333</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="Z29" t="n">
+        <v>2.7124628</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.9703381</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.2186773</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.014209638</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.49894884</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.010288883</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.0032645422</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.0030922308</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.00014561516</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.6696276e-05</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.8538554e-07</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>5.385176e-10</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.0037389743</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.7266039e-07</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.2095806e-10</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.4233319e-14</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.4618627e-11</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.2700534e-08</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>5.6142478e-12</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.193106e-11</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8.079377e-06</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0.0037308949</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>8.351552e-06</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>8.225632899999999e-08</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>5.1877475e-06</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>4.3737895e-10</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>2.0800899e-07</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>1.3342319e-09</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>1.8095307e-07</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>2.6908143e-06</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>1.8292744e-13</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.18605645</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>5.6278583e-05</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>7.203555400000001e-05</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>7.3467696e-06</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0.040983755</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0.027908468</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>0.0026994084</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>0.00162402162</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>0.00162402162</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0.00191203773</v>
+      </c>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1318,18 +9605,297 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>B.046.06.129</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Electricity Sikkim production</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
+        <v>0.0006179718869</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>0.002479248933333333</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="Z30" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>4.2321684e-05</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>4.0379285e-05</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.8771402e-06</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>6.525811800000001e-08</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.4208205e-09</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>6.9420866e-12</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2.300743e-09</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>6.941897e-12</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.8966254e-16</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.2007746e-10</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>9.1397924e-06</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>7.5980337e-08</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>6.8519969e-09</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>3.0235803e-13</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.0024792489</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>1.9090217e-07</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0.00037188734</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>7.6551769e-06</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0.00023842937</v>
+      </c>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW30" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1348,18 +9914,297 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>B.046.06.130</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Energy, electricity India</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Electricity Tamil Nadu production</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
+        <v>0.038348088442</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00122357282</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.00186758486</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.004148728762</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.031108202</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.00066422006</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0012033648</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.001043312</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00018026082</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9.411476200000001e-05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.004054614</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>0.2073880133333333</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="Z31" t="n">
+        <v>3.0687868</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.2038005</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.50156037</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.030090998</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.28957627</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.043758743</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.003651699</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.0034590056</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.00016254538</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>3.014806e-05</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.0737444e-07</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>6.0112935e-10</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.0042224174</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.9245608e-07</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.806864399999999e-10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.5865183e-14</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2.7958033e-11</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.4890402e-08</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.3757953e-12</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.4051255e-11</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9.4559265e-06</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0.0042129615</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>9.7059413e-06</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>9.6873597e-08</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>5.7825281e-06</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>4.9670744e-10</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>2.4114599e-07</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>1.5152144e-09</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>2.0572312e-07</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>3.3776585e-06</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>1.193492e-13</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0.20738801</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>6.627950499999999e-05</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>8.1776362e-05</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>8.545695699999999e-06</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>0.046604567</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>0.031108202</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>0.00309115768</v>
+      </c>
+      <c r="CM31" t="n">
+        <v>0.00186758486</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>0.00186758486</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>0.004148728762</v>
+      </c>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>electricity India.xlsx</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/electricity/electricity India.xlsx
+++ b/Data_processed/electricity/electricity India.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/electricity/electricity India.xlsx
+++ b/Data_processed/electricity/electricity India.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,14 +470,983 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>carbon (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ced (MJ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electricity Andaman  &amp; Nicobar production</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3194690133333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.4160813</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.9076437e-06</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Electricity Andhra Pradesh production</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2765348133333334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.2140221</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.710524400000001e-06</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Electricity Arunachal Pradesh production</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002479979733333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.914841600000001e-08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electricity Assam production</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2740187666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.1470098</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.6403703e-06</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electricity Bihar production</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.34985066</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.7470553</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.7547647e-06</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Electricity Chandigarh production</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003940904333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0988287e-07</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Electricity Chhattisgarh production</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3459967333333334</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.737914</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.647307000000001e-06</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electricity Dadra &amp; Nagar Naveli production</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002545318066666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.3796327</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.0970222e-08</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Electricity Delhi production</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1937403933333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.5154459</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.4019963e-06</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Electricity Goa production</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.003447503133333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.2473845</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.6125534e-08</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electricity Gujarat production</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2079049066666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.8446502</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.7969405e-06</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Electricity Haryana production</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3340773733333334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.6653597</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.3149636e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Electricity Himachal Pradesh production</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0024814414</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.918917000000001e-08</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Electricity Jammu &amp; Kashmir and Ladajh production</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.002479248933333333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Electricity Jharkhand production</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3496074733333334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.7379459</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.7479841e-06</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Electricity Karnataka production</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1666445933333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.7229208</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.6464934e-06</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Electricity Kerala production</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0026977714</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.2703211</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.5221026e-08</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Electricity Lakshadweep production</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3513559333333334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.7505192</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.796735699999999e-06</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Electricity Madhya Pradesh production</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.317259</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.5083763</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.846022799999999e-06</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electricity Maharashtra production</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.28171948</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.4425417</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.8550866e-06</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Electricity Manipur production</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0025019694</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.2400211</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.976154599999999e-08</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Electricity Meghalaya production</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.002479248933333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electricity Mizoram production</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.002500589066666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.9723059e-08</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Electricity Nagaland production</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.002479248933333333</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Electricity Odisha production</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3177190333333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.5123024</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.858849699999999e-06</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Electricity Puducherry production</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.21942052</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.6768029</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.1180263e-06</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Electricity Punjab production</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2726714666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.2398612</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.602804e-06</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Electricity Rajasthan production</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1860564533333333</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.7124628</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.1877475e-06</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electricity Sikkim production</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.002479248933333333</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.2396245</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.9128038e-08</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>electricity India</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Electricity Tamil Nadu production</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2073880133333333</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.0687868</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.7825281e-06</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>